--- a/SeleniumCRMGUIFramework/configAppData/otms test cases.xlsx
+++ b/SeleniumCRMGUIFramework/configAppData/otms test cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Java\SeleniumCRMGUIFramework\configAppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\git\automation_tl\SeleniumCRMGUIFramework\configAppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6BD53-035A-4380-BDC7-0E11F609403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E4C02C-C040-4661-9DE9-C8EA6B629B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3310" windowWidth="14400" windowHeight="8770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Otms smtc " sheetId="1" r:id="rId1"/>
@@ -1533,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E496980D-F7DD-416B-BEF2-320BA09E84C4}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1578,8 +1578,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
     </row>
